--- a/Data/Polls/Raw/Federal/_template.xlsx
+++ b/Data/Polls/Raw/Federal/_template.xlsx
@@ -197,7 +197,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
